--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13870" windowHeight="9090"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="MapClip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="23">
   <si>
     <t>//Remark</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Stone</t>
+  </si>
+  <si>
+    <t>Rare</t>
   </si>
   <si>
     <t>Epic</t>
@@ -1037,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1230,77 +1233,77 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>4002</v>
+        <v>3002</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>4003</v>
+        <v>3003</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1312,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1321,15 +1324,190 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>3004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>4001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>4002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>4003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>4004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="23">
   <si>
     <t>//Remark</t>
   </si>
@@ -1040,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1373,42 +1373,42 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>4001</v>
+        <v>3005</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1417,97 +1417,132 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>4004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="23">
   <si>
     <t>//Remark</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Water</t>
   </si>
   <si>
-    <t>UnCommon</t>
+    <t>Stone</t>
   </si>
   <si>
     <t>Grass</t>
   </si>
   <si>
-    <t>Stone</t>
+    <t>Uncommon</t>
   </si>
   <si>
     <t>Rare</t>
@@ -248,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +598,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,16 +622,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -634,89 +640,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +733,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,10 +1049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1133,417 +1142,557 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>2002</v>
+        <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>3001</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>3002</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>3004</v>
+        <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>3005</v>
+        <v>2003</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>4001</v>
+        <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>4002</v>
+        <v>2005</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>4003</v>
+        <v>3001</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>4004</v>
+        <v>3002</v>
       </c>
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>3003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>3004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>4001</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>4002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="35">
   <si>
     <t>//Remark</t>
   </si>
@@ -25,6 +25,9 @@
     <t>rarity</t>
   </si>
   <si>
+    <t>weight</t>
+  </si>
+  <si>
     <t>tile0</t>
   </si>
   <si>
@@ -52,6 +55,18 @@
     <t>tile8</t>
   </si>
   <si>
+    <t>waterValue</t>
+  </si>
+  <si>
+    <t>grassValue</t>
+  </si>
+  <si>
+    <t>blockValue</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -61,19 +76,25 @@
     <t>enum|MapTileType</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>Common</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Grass</t>
+    <t>Flower</t>
   </si>
   <si>
     <t>Uncommon</t>
@@ -83,6 +104,21 @@
   </si>
   <si>
     <t>Epic</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Duel</t>
   </si>
 </sst>
 </file>
@@ -95,10 +131,45 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF523D75"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,13 +340,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8A0B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,150 +693,183 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,6 +925,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00523D75"/>
+      <color rgb="00A8A0B7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1049,15 +1189,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="12.3636363636364" customWidth="1"/>
+    <col min="2" max="3" width="12.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="11.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="10.8181818181818" customWidth="1"/>
+    <col min="15" max="15" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1065,634 +1208,1126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1001</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1002</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1003</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1004</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1005</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>2001</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2002</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2003</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2004</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>2005</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>3001</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>3002</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>3003</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>19</v>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>3004</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
+        <v>3005</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>4001</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
         <v>4002</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>18</v>
+      <c r="B20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>4003</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>4004</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>5001</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="11">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:15">
+      <c r="A24" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="11">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:12">
+      <c r="A25" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:12">
+      <c r="A26" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="11">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2058,8 +2058,8 @@
       <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>25</v>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>24</v>
@@ -2067,8 +2067,8 @@
       <c r="I20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>25</v>
+      <c r="J20" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>24</v>
@@ -2196,8 +2196,8 @@
       <c r="J23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>24</v>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>24</v>
@@ -2219,14 +2219,14 @@
       <c r="C24" s="11">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>24</v>
+      <c r="F24" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>32</v>
@@ -2237,14 +2237,14 @@
       <c r="I24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>25</v>
+      <c r="J24" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>25</v>
+      <c r="L24" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="M24">
         <v>6</v>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2178,8 +2178,8 @@
       <c r="D23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>24</v>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>24</v>
@@ -2196,8 +2196,8 @@
       <c r="J23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>22</v>
+      <c r="K23" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>24</v>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="MapClip" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="36">
   <si>
     <t>//Remark</t>
   </si>
@@ -119,12 +132,15 @@
   </si>
   <si>
     <t>Duel</t>
+  </si>
+  <si>
+    <t>Hope</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -319,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFE97"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +721,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,16 +745,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -741,89 +763,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +892,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,6 +954,7 @@
     <mruColors>
       <color rgb="00523D75"/>
       <color rgb="00A8A0B7"/>
+      <color rgb="00FFFE97"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1189,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2173,7 +2199,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>24</v>
@@ -2217,7 +2243,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>25</v>
@@ -2262,7 +2288,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
@@ -2300,7 +2326,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>25</v>
@@ -2323,11 +2349,49 @@
       <c r="J26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="16" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>5005</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="36">
   <si>
     <t>//Remark</t>
   </si>
@@ -1215,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1342,7 +1342,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -1368,8 +1368,8 @@
       <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
+      <c r="L4" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -1403,14 +1403,14 @@
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
+      <c r="I5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>22</v>
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -1459,11 +1459,11 @@
       <c r="I6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -1500,8 +1500,8 @@
       <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
+      <c r="H7" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>24</v>
@@ -1533,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>25</v>
@@ -1547,20 +1547,20 @@
       <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>25</v>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1572,59 +1572,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15">
       <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2001</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
-        <v>2002</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>27</v>
@@ -1632,40 +1629,49 @@
       <c r="C10" s="8">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>24</v>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
       <c r="N10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>27</v>
@@ -1673,46 +1679,40 @@
       <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>24</v>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>23</v>
+      <c r="I11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
+      <c r="K11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>27</v>
@@ -1720,43 +1720,46 @@
       <c r="C12" s="8">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>23</v>
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>27</v>
@@ -1764,55 +1767,55 @@
       <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>24</v>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>23</v>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
       </c>
       <c r="N13">
         <v>3</v>
       </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>3001</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="9">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>2005</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>25</v>
@@ -1820,37 +1823,31 @@
       <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>22</v>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="N14">
         <v>3</v>
       </c>
       <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>28</v>
@@ -1858,20 +1855,20 @@
       <c r="C15" s="9">
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>25</v>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>25</v>
@@ -1879,19 +1876,28 @@
       <c r="J15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>24</v>
+      <c r="K15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>28</v>
@@ -1902,37 +1908,37 @@
       <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>23</v>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>23</v>
+      <c r="G16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>23</v>
+      <c r="K16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N16">
+      <c r="M16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>28</v>
@@ -1943,37 +1949,37 @@
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>25</v>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="K17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>28</v>
@@ -1984,114 +1990,108 @@
       <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>24</v>
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>24</v>
+      <c r="J18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="M18">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>3005</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>2</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19">
-        <v>4001</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19">
-        <v>5</v>
       </c>
       <c r="O19">
         <v>4</v>
       </c>
-      <c r="P19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="10">
-        <v>8</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>24</v>
@@ -2099,190 +2099,189 @@
       <c r="K20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
+      <c r="L20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="10">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21">
+      <c r="K21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="10">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22">
         <v>7</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22">
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>4004</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23">
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>4005</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>5001</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23">
-        <v>8</v>
-      </c>
-      <c r="P23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:15">
-      <c r="A24" s="1">
-        <v>5002</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="11">
-        <v>4</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-      <c r="N24"/>
-      <c r="O24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:12">
-      <c r="A25" s="1">
-        <v>5003</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>30</v>
@@ -2290,37 +2289,43 @@
       <c r="C25" s="11">
         <v>4</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:12">
+      <c r="D25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:15">
       <c r="A26" s="1">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>30</v>
@@ -2334,31 +2339,38 @@
       <c r="E26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>25</v>
+      <c r="F26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>23</v>
+      <c r="I26" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="16" t="s">
-        <v>34</v>
+      <c r="K26" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>5005</v>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:12">
+      <c r="A27" s="1">
+        <v>5003</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>30</v>
@@ -2366,31 +2378,107 @@
       <c r="C27" s="11">
         <v>4</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:12">
+      <c r="A28" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="11">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>5005</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="11">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/MapClip.xlsx
+++ b/Assets/Excel/MapClip.xlsx
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2166,32 +2166,32 @@
       <c r="C22" s="10">
         <v>6</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>23</v>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>23</v>
+      <c r="H22" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>24</v>
+      <c r="J22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="N22">
         <v>7</v>
@@ -2251,8 +2251,8 @@
       <c r="D24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
+      <c r="E24" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>24</v>
@@ -2260,8 +2260,8 @@
       <c r="G24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
+      <c r="H24" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>24</v>
@@ -2269,8 +2269,8 @@
       <c r="J24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>22</v>
+      <c r="K24" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>24</v>
